--- a/S23/EESCL/Timesheets/20230226-buziak-timesheet.xlsx
+++ b/S23/EESCL/Timesheets/20230226-buziak-timesheet.xlsx
@@ -1214,9 +1214,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1001880</xdr:colOff>
+      <xdr:colOff>1001520</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1230,7 +1230,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8730720" y="114480"/>
-          <a:ext cx="1419120" cy="810360"/>
+          <a:ext cx="1418760" cy="810000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1253,10 +1253,10 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.13"/>
@@ -1517,7 +1517,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="E10" s="34" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
       <c r="I10" s="34"/>
       <c r="J10" s="35" t="n">
         <f aca="false">SUM(C10:I10)</f>
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="L10" s="36"/>
       <c r="M10" s="37"/>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="D19" s="45" t="n">
         <f aca="false">SUM(D10:D18)</f>
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="E19" s="45" t="n">
         <f aca="false">SUM(E10:E18)</f>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="J19" s="45" t="n">
         <f aca="false">SUM(J10:J18)</f>
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="L19" s="46"/>
       <c r="M19" s="47"/>

--- a/S23/EESCL/Timesheets/20230226-buziak-timesheet.xlsx
+++ b/S23/EESCL/Timesheets/20230226-buziak-timesheet.xlsx
@@ -1214,9 +1214,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1001520</xdr:colOff>
+      <xdr:colOff>1001160</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1230,7 +1230,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8730720" y="114480"/>
-          <a:ext cx="1418760" cy="810000"/>
+          <a:ext cx="1418400" cy="809640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1253,10 +1253,10 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.13"/>
@@ -1520,10 +1520,10 @@
         <v>7.5</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="34" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
       <c r="I10" s="34"/>
       <c r="J10" s="35" t="n">
         <f aca="false">SUM(C10:I10)</f>
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="L10" s="36"/>
       <c r="M10" s="37"/>
@@ -1764,11 +1764,11 @@
       </c>
       <c r="E19" s="45" t="n">
         <f aca="false">SUM(E10:E18)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F19" s="45" t="n">
         <f aca="false">SUM(F10:F18)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="45" t="n">
         <f aca="false">SUM(G10:G18)</f>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="J19" s="45" t="n">
         <f aca="false">SUM(J10:J18)</f>
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="L19" s="46"/>
       <c r="M19" s="47"/>

--- a/S23/EESCL/Timesheets/20230226-buziak-timesheet.xlsx
+++ b/S23/EESCL/Timesheets/20230226-buziak-timesheet.xlsx
@@ -1253,7 +1253,7 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1523,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="34" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
       <c r="I10" s="34"/>
       <c r="J10" s="35" t="n">
         <f aca="false">SUM(C10:I10)</f>
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
       <c r="L10" s="36"/>
       <c r="M10" s="37"/>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="F19" s="45" t="n">
         <f aca="false">SUM(F10:F18)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="45" t="n">
         <f aca="false">SUM(G10:G18)</f>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="J19" s="45" t="n">
         <f aca="false">SUM(J10:J18)</f>
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
       <c r="L19" s="46"/>
       <c r="M19" s="47"/>

--- a/S23/EESCL/Timesheets/20230226-buziak-timesheet.xlsx
+++ b/S23/EESCL/Timesheets/20230226-buziak-timesheet.xlsx
@@ -1214,9 +1214,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1001160</xdr:colOff>
+      <xdr:colOff>1000440</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1230,7 +1230,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8730720" y="114480"/>
-          <a:ext cx="1418400" cy="809640"/>
+          <a:ext cx="1417680" cy="808920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1253,10 +1253,10 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.13"/>
@@ -1526,13 +1526,13 @@
         <v>3</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
       <c r="J10" s="35" t="n">
         <f aca="false">SUM(C10:I10)</f>
-        <v>20.5</v>
+        <v>24</v>
       </c>
       <c r="L10" s="36"/>
       <c r="M10" s="37"/>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="G19" s="45" t="n">
         <f aca="false">SUM(G10:G18)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H19" s="45" t="n">
         <f aca="false">SUM(H10:H18)</f>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="J19" s="45" t="n">
         <f aca="false">SUM(J10:J18)</f>
-        <v>20.5</v>
+        <v>24</v>
       </c>
       <c r="L19" s="46"/>
       <c r="M19" s="47"/>

--- a/S23/EESCL/Timesheets/20230226-buziak-timesheet.xlsx
+++ b/S23/EESCL/Timesheets/20230226-buziak-timesheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t xml:space="preserve">Biweekly Time Report</t>
   </si>
@@ -1134,7 +1134,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1214,9 +1214,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1000440</xdr:colOff>
+      <xdr:colOff>1000080</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1230,7 +1230,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8730720" y="114480"/>
-          <a:ext cx="1417680" cy="808920"/>
+          <a:ext cx="1417320" cy="808560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1253,10 +1253,10 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.13"/>
@@ -1333,7 +1333,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>510519</v>
+        <v>400000</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1372,7 +1372,9 @@
         <v>9</v>
       </c>
       <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="I5" s="19" t="n">
+        <v>17</v>
+      </c>
       <c r="J5" s="19"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -1907,20 +1909,18 @@
         <v>0</v>
       </c>
       <c r="D23" s="50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F23" s="34"/>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
       <c r="J23" s="35" t="n">
         <f aca="false">SUM(C23:I23)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" s="40"/>
       <c r="M23" s="41"/>
@@ -2117,11 +2117,11 @@
       </c>
       <c r="D32" s="45" t="n">
         <f aca="false">SUM(D23:D31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="45" t="n">
         <f aca="false">SUM(E23:E31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="45" t="n">
         <f aca="false">SUM(F23:F31)</f>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="J32" s="45" t="n">
         <f aca="false">SUM(J23:J31)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L32" s="46"/>
       <c r="M32" s="47"/>
@@ -2431,14 +2431,18 @@
       <c r="C43" s="84"/>
       <c r="D43" s="84"/>
       <c r="E43" s="71"/>
-      <c r="F43" s="85"/>
+      <c r="F43" s="85" t="s">
+        <v>3</v>
+      </c>
       <c r="G43" s="85"/>
       <c r="H43" s="85"/>
       <c r="I43" s="85"/>
       <c r="J43" s="85"/>
       <c r="K43" s="85"/>
       <c r="L43" s="71"/>
-      <c r="M43" s="86"/>
+      <c r="M43" s="86" t="n">
+        <v>-2</v>
+      </c>
       <c r="N43" s="86"/>
       <c r="O43" s="86"/>
       <c r="T43" s="9"/>
